--- a/MM_シナリオ_amfツール_福山9(T21AJ001).xlsx
+++ b/MM_シナリオ_amfツール_福山9(T21AJ001).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kddixgn-my.sharepoint.com/personal/akira_fukuyama_k-xgn_com/Documents/Microsoft Teams チャット ファイル/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prot_nf_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{32A42844-2638-4685-BD3B-0B87B59FDA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{589CB32F-67B5-4DBA-9C10-47FB763367E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A45405-F25F-48AA-B73A-FAE0993C0CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="22720" windowHeight="14600" tabRatio="799" firstSheet="7" activeTab="7" xr2:uid="{D7CFE9CE-3C5F-438F-8B70-AD7C361B08A9}"/>
+    <workbookView xWindow="16980" yWindow="-16365" windowWidth="29130" windowHeight="15930" tabRatio="799" firstSheet="7" activeTab="12" xr2:uid="{D7CFE9CE-3C5F-438F-8B70-AD7C361B08A9}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオイメージ_AMF" sheetId="4" state="hidden" r:id="rId1"/>
@@ -16689,9 +16689,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -16729,7 +16729,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -16835,7 +16835,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16977,7 +16977,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -19280,7 +19280,7 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -20989,7 +20989,7 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -21578,6 +21578,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a138ede8-6299-4a04-8719-93fd95b4d78e" xsi:nil="true"/>
+    <_x5bb9__x91cf_ xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_x5099__x8003_ xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010049A25908BAE4E34D84A7F37B2D89930C" ma:contentTypeVersion="19" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ce78fc98d896743fbe042111970bcc8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="902cffed-5789-46ea-8e90-25c5f4a3eb88" xmlns:ns3="a138ede8-6299-4a04-8719-93fd95b4d78e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3d9bbd360074cd60630c3f6a306730a" ns2:_="" ns3:_="">
     <xsd:import namespace="902cffed-5789-46ea-8e90-25c5f4a3eb88"/>
@@ -21840,19 +21853,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a138ede8-6299-4a04-8719-93fd95b4d78e" xsi:nil="true"/>
-    <_x5bb9__x91cf_ xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_x5099__x8003_ xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D865F6-7CA3-432D-8730-3D120F762E57}">
   <ds:schemaRefs>
@@ -21862,6 +21862,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{149AE754-7726-48F5-811C-89198B5539B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a138ede8-6299-4a04-8719-93fd95b4d78e"/>
+    <ds:schemaRef ds:uri="902cffed-5789-46ea-8e90-25c5f4a3eb88"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BEF0553-D7F3-4745-ADA9-3DF37B7B3BDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21878,21 +21895,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{149AE754-7726-48F5-811C-89198B5539B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a138ede8-6299-4a04-8719-93fd95b4d78e"/>
-    <ds:schemaRef ds:uri="902cffed-5789-46ea-8e90-25c5f4a3eb88"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>